--- a/Data_Log/data_litho_cutting/Cuttings log well 16-2-7.xlsx
+++ b/Data_Log/data_litho_cutting/Cuttings log well 16-2-7.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89265b8df4843caa/Documents/Vår 2017/Master/Mud logs/16 2-7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simen\OneDrive\Documents\Vår 2017\Master\Mud logs\16 2-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27780" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -420,13 +420,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>710</v>
       </c>
@@ -451,11 +451,11 @@
         <v>4</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(OR(C2="Claystone",C2="Siltstone",C2="Shale",C2="Clay",C2="Silty clay-shale",C2="Clay-shale"),"Shale",IF(C2="Limestone","Carbonate",C2))</f>
-        <v>Shale</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(OR(C2="Claystone",C2="Siltstone",C2="Shale",C2="Clay",C2="Silty clay-shale",C2="Clay-shale",C2="Marl",C2="Tuff"),"Shale",IF(C2="Limestone","Carbonate",C2))</f>
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>B2</f>
         <v>792</v>
@@ -467,11 +467,11 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D69" si="0">IF(OR(C3="Claystone",C3="Siltstone",C3="Shale",C3="Clay",C3="Silty clay-shale",C3="Clay-shale"),"Shale",IF(C3="Limestone","Carbonate",C3))</f>
-        <v>Sandstone</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D3:D66" si="0">IF(OR(C3="Claystone",C3="Siltstone",C3="Shale",C3="Clay",C3="Silty clay-shale",C3="Clay-shale",C3="Marl",C3="Tuff"),"Shale",IF(C3="Limestone","Carbonate",C3))</f>
+        <v>Sandstone</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">B3</f>
         <v>798</v>
@@ -487,7 +487,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>802</v>
@@ -503,7 +503,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>888</v>
@@ -519,7 +519,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>921</v>
@@ -535,7 +535,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>923</v>
@@ -551,7 +551,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>950</v>
@@ -567,7 +567,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>952</v>
@@ -583,7 +583,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>990</v>
@@ -599,7 +599,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>1020</v>
@@ -615,7 +615,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>1023</v>
@@ -631,7 +631,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>1026</v>
@@ -647,7 +647,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>1060</v>
@@ -663,7 +663,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>1400</v>
@@ -676,10 +676,10 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>Tuff</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>1418</v>
@@ -695,7 +695,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>1502</v>
@@ -711,7 +711,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>1720</v>
@@ -724,10 +724,10 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>1722</v>
@@ -743,7 +743,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>1730</v>
@@ -756,10 +756,10 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>1734</v>
@@ -775,7 +775,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>1742</v>
@@ -791,7 +791,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>1763</v>
@@ -807,7 +807,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>1772</v>
@@ -820,10 +820,10 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>1905</v>
@@ -839,7 +839,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>1922</v>
@@ -852,10 +852,10 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>1941</v>
@@ -871,7 +871,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>1966</v>
@@ -887,7 +887,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -903,7 +903,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>1972</v>
@@ -919,7 +919,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>1976</v>
@@ -935,7 +935,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>1982</v>
@@ -951,7 +951,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>1984</v>
@@ -967,7 +967,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>1986</v>
@@ -983,7 +983,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>1988</v>
@@ -999,7 +999,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -1015,7 +1015,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>2007</v>
@@ -1031,7 +1031,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>2012</v>
@@ -1047,7 +1047,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>2014</v>
@@ -1063,7 +1063,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>2017</v>
@@ -1079,7 +1079,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>2020</v>
@@ -1095,7 +1095,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>2027</v>
@@ -1111,7 +1111,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>2029</v>
@@ -1127,7 +1127,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>2033</v>
@@ -1143,7 +1143,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>2035</v>
@@ -1159,7 +1159,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>2037</v>
@@ -1175,7 +1175,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>2042</v>
@@ -1191,7 +1191,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>2049</v>
@@ -1207,7 +1207,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>2063</v>
@@ -1223,7 +1223,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>2065</v>
@@ -1239,7 +1239,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>2079</v>
@@ -1255,7 +1255,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>2081</v>
@@ -1271,7 +1271,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>2131</v>
@@ -1284,10 +1284,10 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>Tuff</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>2152</v>
@@ -1300,10 +1300,10 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>Marl</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <f t="shared" si="1"/>
         <v>2168.23</v>
@@ -1319,7 +1319,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <f t="shared" si="1"/>
         <v>2175.1999999999998</v>
@@ -1335,7 +1335,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <f t="shared" si="1"/>
         <v>2186.44</v>
@@ -1351,7 +1351,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <f t="shared" si="1"/>
         <v>2188.34</v>
@@ -1367,7 +1367,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <f t="shared" si="1"/>
         <v>2196.42</v>
@@ -1383,7 +1383,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <f t="shared" si="1"/>
         <v>2198</v>
@@ -1399,7 +1399,7 @@
         <v>Carbonate</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <f t="shared" si="1"/>
         <v>2226.35</v>
@@ -1415,7 +1415,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <f t="shared" si="1"/>
         <v>2230.15</v>
@@ -1431,7 +1431,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <f t="shared" si="1"/>
         <v>2236.3200000000002</v>
@@ -1447,7 +1447,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <f t="shared" si="1"/>
         <v>2242.33</v>
@@ -1463,7 +1463,7 @@
         <v>Sandstone</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <f t="shared" si="1"/>
         <v>2283.35</v>
@@ -1479,7 +1479,7 @@
         <v>Shale</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <f t="shared" si="1"/>
         <v>2310</v>
@@ -1491,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>Sandstone</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D67:D69" si="2">IF(OR(C67="Claystone",C67="Siltstone",C67="Shale",C67="Clay",C67="Silty clay-shale",C67="Clay-shale",C67="Marl",C67="Tuff"),"Shale",IF(C67="Limestone","Carbonate",C67))</f>
+        <v>Sandstone</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <f t="shared" ref="A68:A69" si="2">B67</f>
+        <f t="shared" ref="A68:A69" si="3">B67</f>
         <v>2378</v>
       </c>
       <c r="B68" s="2">
@@ -1507,13 +1507,13 @@
         <v>4</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="0"/>
-        <v>Shale</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>Shale</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2380</v>
       </c>
       <c r="B69" s="2">
@@ -1523,7 +1523,7 @@
         <v>5</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Sandstone</v>
       </c>
     </row>
